--- a/data_driven.xlsx
+++ b/data_driven.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ketaki\Desktop\API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ketaki\Desktop\python\CodeRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B48C3A-B882-496D-8CFD-07349594B5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF17F7A-F320-4B61-A775-B77CF9AA0DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AFAED62F-FF0B-42EE-81ED-095AEECFB948}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>first_name</t>
   </si>
@@ -154,6 +154,57 @@
   </si>
   <si>
     <t>23-12-1239</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>m11</t>
+  </si>
+  <si>
+    <t>m12</t>
+  </si>
+  <si>
+    <t>m13</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>23-12-1240</t>
+  </si>
+  <si>
+    <t>23-12-1241</t>
+  </si>
+  <si>
+    <t>23-12-1242</t>
+  </si>
+  <si>
+    <t>23-12-1243</t>
   </si>
 </sst>
 </file>
@@ -511,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EEB1A0-9D1D-4849-8C6F-93A987F530A4}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D10"/>
+      <selection activeCell="D10" sqref="D10:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +716,67 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
